--- a/xlsForms/Encuesta 8 Agroindustria.xlsx
+++ b/xlsForms/Encuesta 8 Agroindustria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7140F7-C01B-47D1-A072-D3AC350AC985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C310DD2B-2030-4F13-881C-7D92539B6828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="405">
   <si>
     <t>type</t>
   </si>
@@ -1221,6 +1221,27 @@
   </si>
   <si>
     <t>F. Remuneraciones</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1298,11 +1319,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1330,6 +1362,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119:I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1664,7 @@
     <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,8 +1692,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1669,7 +1707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1738,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1714,12 +1752,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1730,7 +1768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1772,7 +1810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1806,12 +1844,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1841,7 +1879,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3478,6 +3516,57 @@
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="J114" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
